--- a/file/엑셀 기초 총정리 특강 1-1.xlsx
+++ b/file/엑셀 기초 총정리 특강 1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Excel_Study\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5B281-A4AA-453F-A365-6BC2BA455102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5657269-AA76-4222-A799-741AE2641044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{4D0D7E83-E110-4E81-9716-E789F9EFFFBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{4D0D7E83-E110-4E81-9716-E789F9EFFFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="채우기TIP" sheetId="1" r:id="rId1"/>
@@ -1967,12 +1967,4521 @@
         </r>
       </text>
     </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{47FA07D7-05AD-40C9-82D2-54A081C9CB47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엑셀에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣을때
+인터넷에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드래그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+Alt + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드래그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{1BF17301-66DA-4B85-9E18-8AC13B2EBC9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>언어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메크로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메크로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>차단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메크로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콘텐츠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용법</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스페이스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{E7ADC430-9DA4-41C7-A829-07746075EE8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하이퍼링크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>언어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인터넷과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>네트워크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경로를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하이퍼링크로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{8F4D3847-5527-47BA-A1D1-B43BF5603DEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영문으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">변경
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>언어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{E77B607C-396F-4806-A189-878B4154D313}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영문</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대문자로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>언어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영문</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대문자로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{1A56A7D7-8478-434C-ABBC-C7D11815E477}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠른실행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도구</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>왼쪽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화살표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>▶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>▶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빠른실행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도구</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단축키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+alt + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외쪽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화살표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없을시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엑셀에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능
+하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>너무</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>많기에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각각의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>탭의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">=======================================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  F2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">=======================================
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B1E0CB81-BFBE-4638-9574-319252DB9B45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만들기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한쪽에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비교</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동완성을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="211">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2442,9 +6951,6 @@
     <t>뉴질랜드</t>
   </si>
   <si>
-    <t>홍콩</t>
-  </si>
-  <si>
     <t>산마리노</t>
   </si>
   <si>
@@ -2537,10 +7043,6 @@
   </si>
   <si>
     <t>생가포르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사윗스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2657,6 +7159,65 @@
   </si>
   <si>
     <t>불닭 피자 (Small) / 고구마무스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">→ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> • </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0311alswns@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은-000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0311alsals@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍콩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2669,7 +7230,7 @@
     <numFmt numFmtId="177" formatCode="General\ &quot;페이지&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0;;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,6 +7458,21 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3381,7 +7957,7 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3394,8 +7970,11 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3657,6 +8236,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3672,21 +8254,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="백분율 2" xfId="3" xr:uid="{F76CC895-7F60-419A-B8C1-18B8C0A497A3}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{0E3A4137-B7B2-487F-A496-71BF3467E949}"/>
     <cellStyle name="표준 2 2" xfId="1" xr:uid="{F0060391-CB85-4F7F-A9A1-9F7D18E61956}"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4391,6 +8968,368 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="Gray and white domestic house cat on black background at the Hutchinson Zoo.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83839447-14E9-7031-7095-385851A1D57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="419100"/>
+          <a:ext cx="1114425" cy="627424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="rimg_3" descr="고양이 - 나무위키">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D61D82-705E-14AE-5062-DBD1CE86F4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="1009650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="rimg_3" descr="고양이 - 나무위키">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AFC44E-7336-419D-5112-4641FC6D7F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="1009650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 5" descr="Closeup shot of a ragdoll cat's face">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6454B8A0-73EB-619E-D46A-9EAA8C55D5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="1009650"/>
+          <a:ext cx="15678150" cy="11201400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="AutoShape 6" descr="Closeup shot of a ragdoll cat's face">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762431C6-8F74-C508-31E0-93AEE60C8EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="3371850"/>
+          <a:ext cx="15678150" cy="11201400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="AutoShape 7" descr="랙돌고양이">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC4A915-FD65-E18E-E4C8-2E21C30779CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="1009650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>581026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="baseImage" descr="대용량 전기난로 5.5kW_이미지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B839EA-4D1B-F2C2-BD34-C0E4739F52EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4514851" y="1057276"/>
+          <a:ext cx="533400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5313,8 +10252,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1187343</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>218052</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7725,8 +12664,8 @@
   </sheetPr>
   <dimension ref="B1:AL142"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999" customHeight="1" outlineLevelCol="1"/>
@@ -7784,23 +12723,23 @@
       <c r="AL2" s="30"/>
     </row>
     <row r="3" spans="2:38" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
       <c r="P3" s="12"/>
       <c r="R3" s="36" t="s">
         <v>102</v>
@@ -7808,12 +12747,12 @@
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
       <c r="Y3" s="31"/>
-      <c r="Z3" s="87" t="s">
+      <c r="Z3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
       <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
       <c r="AF3" s="27"/>
@@ -7869,7 +12808,7 @@
       </c>
       <c r="P5" s="12"/>
       <c r="R5" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
@@ -7937,13 +12876,13 @@
         <v>44562</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M6" s="3">
         <v>26</v>
@@ -7954,7 +12893,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="12"/>
       <c r="R6" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
@@ -7965,37 +12904,37 @@
       <c r="Z6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AA6" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB6" s="92" t="s">
+      <c r="AA6" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="92" t="s">
+      <c r="AC6" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="92" t="s">
+      <c r="AD6" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="92" t="s">
+      <c r="AE6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AF6" s="92" t="s">
+      <c r="AF6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="92" t="s">
+      <c r="AG6" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="92" t="s">
+      <c r="AH6" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AI6" s="92" t="s">
+      <c r="AI6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AJ6" s="92" t="s">
+      <c r="AJ6" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AK6" s="92" t="s">
+      <c r="AK6" s="87" t="s">
         <v>25</v>
       </c>
       <c r="AL6" s="32"/>
@@ -8025,10 +12964,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M7" s="3">
         <v>17</v>
@@ -8039,7 +12978,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="12"/>
       <c r="R7" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -8051,7 +12990,7 @@
         <v>7</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -8090,10 +13029,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="3">
         <v>30</v>
@@ -8104,7 +13043,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="12"/>
       <c r="R8" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S8" s="36"/>
       <c r="T8" s="36"/>
@@ -8175,10 +13114,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M9" s="3">
         <v>13</v>
@@ -8252,10 +13191,10 @@
         <v>32</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M10" s="3">
         <v>16</v>
@@ -8310,10 +13249,10 @@
         <v>34</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M11" s="3">
         <v>25</v>
@@ -8363,10 +13302,10 @@
         <v>35</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M12" s="3">
         <v>30</v>
@@ -8386,10 +13325,10 @@
         <v>36</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M13" s="3">
         <v>14</v>
@@ -8409,10 +13348,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M14" s="3">
         <v>27</v>
@@ -8432,10 +13371,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M15" s="3">
         <v>29</v>
@@ -8455,10 +13394,10 @@
         <v>38</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M16" s="3">
         <v>11</v>
@@ -8471,15 +13410,17 @@
     </row>
     <row r="17" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H17" s="11"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22">
+        <v>44576</v>
+      </c>
       <c r="J17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M17" s="3">
         <v>25</v>
@@ -8492,15 +13433,17 @@
     </row>
     <row r="18" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H18" s="11"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22">
+        <v>44577</v>
+      </c>
       <c r="J18" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M18" s="3">
         <v>22</v>
@@ -8513,15 +13456,17 @@
     </row>
     <row r="19" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H19" s="11"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22">
+        <v>44578</v>
+      </c>
       <c r="J19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M19" s="3">
         <v>10</v>
@@ -8534,15 +13479,17 @@
     </row>
     <row r="20" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H20" s="11"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="22">
+        <v>44579</v>
+      </c>
       <c r="J20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="K20" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M20" s="3">
         <v>13</v>
@@ -8555,15 +13502,17 @@
     </row>
     <row r="21" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H21" s="11"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="22">
+        <v>44580</v>
+      </c>
       <c r="J21" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M21" s="3">
         <v>30</v>
@@ -8576,15 +13525,17 @@
     </row>
     <row r="22" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H22" s="11"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="22">
+        <v>44581</v>
+      </c>
       <c r="J22" s="22" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M22" s="3">
         <v>18</v>
@@ -8597,15 +13548,17 @@
     </row>
     <row r="23" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H23" s="11"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="22">
+        <v>44582</v>
+      </c>
       <c r="J23" s="22" t="s">
         <v>45</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M23" s="3">
         <v>28</v>
@@ -8618,15 +13571,17 @@
     </row>
     <row r="24" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H24" s="11"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="22">
+        <v>44583</v>
+      </c>
       <c r="J24" s="22" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M24" s="3">
         <v>12</v>
@@ -8639,15 +13594,17 @@
     </row>
     <row r="25" spans="8:16" ht="16.899999999999999" customHeight="1">
       <c r="H25" s="11"/>
-      <c r="I25" s="22"/>
+      <c r="I25" s="22">
+        <v>44584</v>
+      </c>
       <c r="J25" s="22" t="s">
         <v>47</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M25" s="3">
         <v>19</v>
@@ -8665,10 +13622,10 @@
         <v>48</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M26" s="3">
         <v>11</v>
@@ -8686,10 +13643,10 @@
         <v>49</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M27" s="3">
         <v>10</v>
@@ -8707,10 +13664,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M28" s="3">
         <v>28</v>
@@ -8728,10 +13685,10 @@
         <v>51</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M29" s="3">
         <v>10</v>
@@ -8749,10 +13706,10 @@
         <v>52</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M30" s="3">
         <v>12</v>
@@ -8770,10 +13727,10 @@
         <v>53</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M31" s="3">
         <v>13</v>
@@ -8791,10 +13748,10 @@
         <v>24</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M32" s="3">
         <v>24</v>
@@ -8812,10 +13769,10 @@
         <v>47</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M33" s="3">
         <v>24</v>
@@ -8833,10 +13790,10 @@
         <v>54</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M34" s="3">
         <v>21</v>
@@ -8854,10 +13811,10 @@
         <v>43</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M35" s="3">
         <v>17</v>
@@ -8875,10 +13832,10 @@
         <v>55</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M36" s="3">
         <v>14</v>
@@ -8896,10 +13853,10 @@
         <v>56</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M37" s="3">
         <v>21</v>
@@ -8917,10 +13874,10 @@
         <v>57</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M38" s="3">
         <v>17</v>
@@ -8938,10 +13895,10 @@
         <v>32</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M39" s="3">
         <v>28</v>
@@ -8959,10 +13916,10 @@
         <v>58</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M40" s="3">
         <v>12</v>
@@ -8980,10 +13937,10 @@
         <v>59</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M41" s="3">
         <v>26</v>
@@ -9001,10 +13958,10 @@
         <v>60</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M42" s="3">
         <v>16</v>
@@ -9022,10 +13979,10 @@
         <v>22</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M43" s="3">
         <v>14</v>
@@ -9043,10 +14000,10 @@
         <v>61</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M44" s="3">
         <v>30</v>
@@ -9064,10 +14021,10 @@
         <v>49</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M45" s="3">
         <v>13</v>
@@ -9085,10 +14042,10 @@
         <v>62</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M46" s="3">
         <v>13</v>
@@ -9106,10 +14063,10 @@
         <v>63</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M47" s="3">
         <v>12</v>
@@ -9127,10 +14084,10 @@
         <v>33</v>
       </c>
       <c r="K48" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L48" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M48" s="3">
         <v>17</v>
@@ -9148,10 +14105,10 @@
         <v>44</v>
       </c>
       <c r="K49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L49" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M49" s="3">
         <v>20</v>
@@ -9169,10 +14126,10 @@
         <v>64</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M50" s="3">
         <v>12</v>
@@ -9190,10 +14147,10 @@
         <v>65</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M51" s="3">
         <v>22</v>
@@ -9211,10 +14168,10 @@
         <v>45</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M52" s="3">
         <v>24</v>
@@ -9232,10 +14189,10 @@
         <v>66</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M53" s="3">
         <v>24</v>
@@ -9253,10 +14210,10 @@
         <v>42</v>
       </c>
       <c r="K54" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M54" s="3">
         <v>10</v>
@@ -9274,10 +14231,10 @@
         <v>59</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M55" s="3">
         <v>25</v>
@@ -9295,10 +14252,10 @@
         <v>67</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M56" s="3">
         <v>27</v>
@@ -9316,10 +14273,10 @@
         <v>68</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M57" s="3">
         <v>22</v>
@@ -9337,10 +14294,10 @@
         <v>37</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M58" s="3">
         <v>24</v>
@@ -9358,10 +14315,10 @@
         <v>13</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M59" s="3">
         <v>19</v>
@@ -9379,10 +14336,10 @@
         <v>37</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M60" s="3">
         <v>10</v>
@@ -9400,10 +14357,10 @@
         <v>49</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M61" s="3">
         <v>15</v>
@@ -9421,10 +14378,10 @@
         <v>66</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M62" s="3">
         <v>16</v>
@@ -9442,10 +14399,10 @@
         <v>69</v>
       </c>
       <c r="K63" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L63" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M63" s="3">
         <v>26</v>
@@ -9463,10 +14420,10 @@
         <v>70</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M64" s="3">
         <v>13</v>
@@ -9484,10 +14441,10 @@
         <v>71</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M65" s="3">
         <v>21</v>
@@ -9505,10 +14462,10 @@
         <v>72</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M66" s="3">
         <v>24</v>
@@ -9526,10 +14483,10 @@
         <v>73</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M67" s="3">
         <v>27</v>
@@ -9547,10 +14504,10 @@
         <v>74</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M68" s="3">
         <v>23</v>
@@ -9568,10 +14525,10 @@
         <v>33</v>
       </c>
       <c r="K69" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L69" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M69" s="3">
         <v>19</v>
@@ -9589,10 +14546,10 @@
         <v>75</v>
       </c>
       <c r="K70" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L70" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="M70" s="3">
         <v>29</v>
@@ -9610,10 +14567,10 @@
         <v>62</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M71" s="3">
         <v>10</v>
@@ -9631,10 +14588,10 @@
         <v>28</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M72" s="3">
         <v>25</v>
@@ -9652,10 +14609,10 @@
         <v>76</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M73" s="3">
         <v>26</v>
@@ -9673,10 +14630,10 @@
         <v>54</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M74" s="3">
         <v>21</v>
@@ -9694,10 +14651,10 @@
         <v>18</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M75" s="3">
         <v>18</v>
@@ -9715,10 +14672,10 @@
         <v>77</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M76" s="3">
         <v>11</v>
@@ -9736,10 +14693,10 @@
         <v>78</v>
       </c>
       <c r="K77" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="M77" s="3">
         <v>10</v>
@@ -9757,10 +14714,10 @@
         <v>79</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M78" s="3">
         <v>21</v>
@@ -9778,10 +14735,10 @@
         <v>65</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M79" s="3">
         <v>25</v>
@@ -9799,10 +14756,10 @@
         <v>80</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M80" s="3">
         <v>24</v>
@@ -9820,10 +14777,10 @@
         <v>67</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M81" s="3">
         <v>25</v>
@@ -9841,10 +14798,10 @@
         <v>81</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M82" s="3">
         <v>25</v>
@@ -9862,10 +14819,10 @@
         <v>80</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -9883,10 +14840,10 @@
         <v>18</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M84" s="3">
         <v>21</v>
@@ -9904,10 +14861,10 @@
         <v>43</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M85" s="3">
         <v>22</v>
@@ -9925,10 +14882,10 @@
         <v>82</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M86" s="3">
         <v>17</v>
@@ -9946,10 +14903,10 @@
         <v>83</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M87" s="3">
         <v>29</v>
@@ -9967,10 +14924,10 @@
         <v>84</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M88" s="3">
         <v>12</v>
@@ -9988,10 +14945,10 @@
         <v>30</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M89" s="3">
         <v>25</v>
@@ -10009,10 +14966,10 @@
         <v>70</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M90" s="3">
         <v>17</v>
@@ -10030,10 +14987,10 @@
         <v>27</v>
       </c>
       <c r="K91" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L91" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="M91" s="3">
         <v>28</v>
@@ -10051,10 +15008,10 @@
         <v>85</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M92" s="3">
         <v>10</v>
@@ -10072,10 +15029,10 @@
         <v>86</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M93" s="3">
         <v>11</v>
@@ -10093,10 +15050,10 @@
         <v>87</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M94" s="3">
         <v>19</v>
@@ -10114,10 +15071,10 @@
         <v>88</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M95" s="3">
         <v>16</v>
@@ -10135,10 +15092,10 @@
         <v>89</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M96" s="3">
         <v>14</v>
@@ -10156,10 +15113,10 @@
         <v>25</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M97" s="3">
         <v>14</v>
@@ -10177,10 +15134,10 @@
         <v>90</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M98" s="3">
         <v>23</v>
@@ -10198,10 +15155,10 @@
         <v>91</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M99" s="3">
         <v>18</v>
@@ -10219,10 +15176,10 @@
         <v>61</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M100" s="3">
         <v>30</v>
@@ -10240,10 +15197,10 @@
         <v>31</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M101" s="3">
         <v>23</v>
@@ -10261,10 +15218,10 @@
         <v>27</v>
       </c>
       <c r="K102" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L102" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="L102" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="M102" s="3">
         <v>26</v>
@@ -10282,10 +15239,10 @@
         <v>92</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M103" s="3">
         <v>18</v>
@@ -10303,10 +15260,10 @@
         <v>16</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M104" s="3">
         <v>15</v>
@@ -10324,10 +15281,10 @@
         <v>92</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M105" s="3">
         <v>20</v>
@@ -10345,10 +15302,10 @@
         <v>34</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M106" s="3">
         <v>13</v>
@@ -10366,10 +15323,10 @@
         <v>92</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M107" s="3">
         <v>15</v>
@@ -10387,10 +15344,10 @@
         <v>93</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M108" s="3">
         <v>11</v>
@@ -10408,10 +15365,10 @@
         <v>24</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M109" s="3">
         <v>12</v>
@@ -10429,10 +15386,10 @@
         <v>20</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M110" s="3">
         <v>26</v>
@@ -10450,10 +15407,10 @@
         <v>74</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M111" s="3">
         <v>27</v>
@@ -10471,10 +15428,10 @@
         <v>94</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M112" s="3">
         <v>10</v>
@@ -10492,10 +15449,10 @@
         <v>95</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M113" s="3">
         <v>12</v>
@@ -10513,10 +15470,10 @@
         <v>29</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M114" s="3">
         <v>15</v>
@@ -10534,10 +15491,10 @@
         <v>77</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M115" s="3">
         <v>10</v>
@@ -10555,10 +15512,10 @@
         <v>91</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M116" s="3">
         <v>13</v>
@@ -10576,10 +15533,10 @@
         <v>76</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M117" s="3">
         <v>23</v>
@@ -10597,10 +15554,10 @@
         <v>65</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M118" s="3">
         <v>18</v>
@@ -10618,10 +15575,10 @@
         <v>66</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M119" s="3">
         <v>16</v>
@@ -10639,10 +15596,10 @@
         <v>27</v>
       </c>
       <c r="K120" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L120" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="L120" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="M120" s="3">
         <v>18</v>
@@ -10660,10 +15617,10 @@
         <v>35</v>
       </c>
       <c r="K121" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M121" s="3">
         <v>25</v>
@@ -10681,10 +15638,10 @@
         <v>74</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M122" s="3">
         <v>23</v>
@@ -10702,10 +15659,10 @@
         <v>73</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M123" s="3">
         <v>29</v>
@@ -10723,10 +15680,10 @@
         <v>11</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M124" s="3">
         <v>27</v>
@@ -10744,10 +15701,10 @@
         <v>96</v>
       </c>
       <c r="K125" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M125" s="3">
         <v>15</v>
@@ -10765,10 +15722,10 @@
         <v>97</v>
       </c>
       <c r="K126" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M126" s="3">
         <v>14</v>
@@ -10786,10 +15743,10 @@
         <v>98</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M127" s="3">
         <v>25</v>
@@ -10807,10 +15764,10 @@
         <v>66</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M128" s="3">
         <v>14</v>
@@ -10828,10 +15785,10 @@
         <v>90</v>
       </c>
       <c r="K129" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M129" s="3">
         <v>19</v>
@@ -10849,10 +15806,10 @@
         <v>70</v>
       </c>
       <c r="K130" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M130" s="3">
         <v>18</v>
@@ -10870,10 +15827,10 @@
         <v>60</v>
       </c>
       <c r="K131" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M131" s="3">
         <v>26</v>
@@ -10891,10 +15848,10 @@
         <v>99</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M132" s="3">
         <v>30</v>
@@ -10912,10 +15869,10 @@
         <v>97</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M133" s="3">
         <v>12</v>
@@ -10933,10 +15890,10 @@
         <v>100</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M134" s="3">
         <v>27</v>
@@ -10954,10 +15911,10 @@
         <v>97</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M135" s="3">
         <v>28</v>
@@ -10975,10 +15932,10 @@
         <v>47</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M136" s="3">
         <v>30</v>
@@ -10996,10 +15953,10 @@
         <v>88</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M137" s="3">
         <v>12</v>
@@ -11017,10 +15974,10 @@
         <v>19</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M138" s="3">
         <v>22</v>
@@ -11038,10 +15995,10 @@
         <v>96</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M139" s="3">
         <v>18</v>
@@ -11059,10 +16016,10 @@
         <v>26</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M140" s="3">
         <v>30</v>
@@ -11080,10 +16037,10 @@
         <v>67</v>
       </c>
       <c r="K141" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L141" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M141" s="3">
         <v>24</v>
@@ -11125,8 +16082,8 @@
   </sheetPr>
   <dimension ref="G2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11137,93 +16094,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:12">
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G3" s="94"/>
-      <c r="H3" s="94">
+      <c r="H3">
         <v>200</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="J3" s="94">
+      <c r="J3">
         <f>H3-I3</f>
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G4" s="94"/>
-      <c r="H4" s="94">
+      <c r="H4">
         <v>400</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4">
         <f t="shared" ref="J4:J8" si="0">H4-I4</f>
         <v>375</v>
       </c>
     </row>
     <row r="5" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G5" s="94"/>
-      <c r="H5" s="94">
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G6" s="94"/>
-      <c r="H6" s="94">
+      <c r="H6">
         <v>150</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G7" s="94"/>
-      <c r="H7" s="94">
+      <c r="H7">
         <v>200</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="7:12" ht="46.9" customHeight="1">
-      <c r="G8" s="94"/>
-      <c r="H8" s="94">
+      <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
@@ -11238,13 +16189,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C38D7-0673-4809-80B0-9985386F0DFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C38D7-0673-4809-80B0-9985386F0DFE}">
   <sheetPr>
     <tabColor rgb="FF339933"/>
   </sheetPr>
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -11253,69 +16206,84 @@
     <col min="3" max="16384" width="8.75" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="10.15" customHeight="1"/>
-    <row r="2" spans="2:2" ht="17.25" thickBot="1">
+    <row r="1" spans="2:3" ht="10.15" customHeight="1"/>
+    <row r="2" spans="2:3" ht="17.25" thickBot="1">
       <c r="B2" s="44" t="str">
         <f ca="1">TEXT(TODAY(),"'yy년 m월")&amp;" 1주차 계획"</f>
         <v>'24년 4월 1주차 계획</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.25" thickTop="1">
+    <row r="3" spans="2:3" ht="17.25" thickTop="1">
       <c r="B3" s="41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="39"/>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="2:2" ht="17.25" thickBot="1">
+    <row r="8" spans="2:3" ht="17.25" thickBot="1">
       <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="2:2" ht="18" thickTop="1" thickBot="1">
+    <row r="9" spans="2:3" ht="18" thickTop="1" thickBot="1">
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.25" thickTop="1">
+    <row r="10" spans="2:3" ht="17.25" thickTop="1">
       <c r="B10" s="40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:3">
       <c r="B11" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:3">
       <c r="B12" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E20198-D29E-41DA-A8AA-CA9C85D009E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E20198-D29E-41DA-A8AA-CA9C85D009E2}">
   <sheetPr>
     <tabColor rgb="FF339933"/>
   </sheetPr>
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -11323,22 +16291,22 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.45" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:6" ht="30.6" customHeight="1">
-      <c r="B2" s="88" t="s">
+    <row r="1" spans="2:7" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="30.6" customHeight="1">
+      <c r="B2" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-    </row>
-    <row r="3" spans="2:6" ht="10.15" customHeight="1"/>
-    <row r="4" spans="2:6">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+    </row>
+    <row r="3" spans="2:7" ht="10.15" customHeight="1"/>
+    <row r="4" spans="2:7">
       <c r="B4" s="47" t="s">
         <v>127</v>
       </c>
@@ -11355,7 +16323,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="45" t="s">
         <v>122</v>
       </c>
@@ -11365,12 +16333,14 @@
       <c r="D5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="93" t="s">
+        <v>205</v>
+      </c>
       <c r="F5" s="45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="45" t="s">
         <v>119</v>
       </c>
@@ -11380,12 +16350,14 @@
       <c r="D6" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>208</v>
+      </c>
       <c r="F6" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="45" t="s">
         <v>116</v>
       </c>
@@ -11396,9 +16368,11 @@
         <v>115</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="45" t="s">
         <v>114</v>
       </c>
@@ -11409,9 +16383,11 @@
         <v>112</v>
       </c>
       <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="45" t="s">
         <v>111</v>
       </c>
@@ -11424,24 +16400,31 @@
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
     </row>
+    <row r="13" spans="2:7"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{D3A5DBAD-6252-4C07-8757-D4644E979493}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49CE542-CD77-41FF-B1A0-AC1D6760AE30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49CE542-CD77-41FF-B1A0-AC1D6760AE30}">
   <sheetPr>
     <tabColor rgb="FF339933"/>
   </sheetPr>
-  <dimension ref="B1:O37"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="16.5"/>
   <cols>
@@ -11456,7 +16439,7 @@
     <col min="16" max="16384" width="8.25" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10.15" customHeight="1" thickBot="1">
+    <row r="1" spans="2:18" ht="10.15" customHeight="1" thickBot="1">
       <c r="B1" s="49"/>
       <c r="C1" s="55"/>
       <c r="D1" s="49"/>
@@ -11466,24 +16449,24 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="2:15" ht="25.15" customHeight="1">
+    <row r="2" spans="2:18" ht="25.15" customHeight="1">
       <c r="B2" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="49"/>
-      <c r="H2" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-    </row>
-    <row r="3" spans="2:15" ht="6.6" customHeight="1">
+      <c r="H2" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="2:18" ht="6.6" customHeight="1">
       <c r="B3" s="49"/>
       <c r="C3" s="55"/>
       <c r="D3" s="49"/>
@@ -11496,559 +16479,625 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:18">
       <c r="B4" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>162</v>
-      </c>
       <c r="D4" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="49"/>
       <c r="N4" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="52"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:18">
       <c r="B5" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="51"/>
+        <v>168</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
       <c r="D5" s="50">
-        <v>57836</v>
+        <v>135045</v>
       </c>
       <c r="E5" s="50">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F5" s="50">
-        <v>17176588</v>
+        <v>637482</v>
       </c>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:18">
       <c r="B6" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="51">
+        <v>2</v>
+      </c>
       <c r="D6" s="50">
+        <v>101509</v>
+      </c>
+      <c r="E6" s="50">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F6" s="50">
+        <v>4988494</v>
+      </c>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="51">
+        <v>3</v>
+      </c>
+      <c r="D7" s="50">
         <v>99481</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E7" s="50">
         <v>0.02</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F7" s="50">
         <v>5464037</v>
       </c>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50">
-        <v>49847</v>
-      </c>
-      <c r="E7" s="50">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F7" s="50">
-        <v>4863312</v>
-      </c>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:18">
       <c r="B8" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="51"/>
+        <v>209</v>
+      </c>
+      <c r="C8" s="51">
+        <v>4</v>
+      </c>
       <c r="D8" s="50">
-        <v>36051</v>
+        <v>96390</v>
       </c>
       <c r="E8" s="50">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F8" s="50">
+        <v>8715851</v>
+      </c>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="51">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50">
+        <v>84514</v>
+      </c>
+      <c r="E9" s="50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F9" s="50">
+        <v>2935322</v>
+      </c>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="51">
+        <v>6</v>
+      </c>
+      <c r="D10" s="50">
+        <v>79816</v>
+      </c>
+      <c r="E10" s="50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F10" s="50">
+        <v>445151</v>
+      </c>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="51">
+        <v>7</v>
+      </c>
+      <c r="D11" s="50">
+        <v>79576</v>
+      </c>
+      <c r="E11" s="50">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F11" s="50">
+        <v>5903031</v>
+      </c>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="51">
+        <v>8</v>
+      </c>
+      <c r="D12" s="50">
+        <v>76027</v>
+      </c>
+      <c r="E12" s="50">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F12" s="50">
+        <v>332915479</v>
+      </c>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="51">
+        <v>9</v>
+      </c>
+      <c r="D13" s="50">
+        <v>74417</v>
+      </c>
+      <c r="E13" s="50">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F13" s="50">
+        <v>345315</v>
+      </c>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="51">
+        <v>10</v>
+      </c>
+      <c r="D14" s="50">
+        <v>68094</v>
+      </c>
+      <c r="E14" s="50">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F8" s="50">
-        <v>23456716</v>
-      </c>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50">
-        <v>34994</v>
-      </c>
-      <c r="E9" s="50">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F9" s="50">
-        <v>51663788</v>
-      </c>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50">
-        <v>68094</v>
-      </c>
-      <c r="E10" s="50">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F10" s="50">
+      <c r="F14" s="50">
         <v>5817245</v>
       </c>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50">
-        <v>51104</v>
-      </c>
-      <c r="E11" s="50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F11" s="50">
-        <v>83904967</v>
-      </c>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50">
-        <v>135045</v>
-      </c>
-      <c r="E12" s="50">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F12" s="50">
-        <v>637482</v>
-      </c>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="50">
-        <v>50578</v>
-      </c>
-      <c r="E13" s="50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F13" s="50">
-        <v>664516</v>
-      </c>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="51" t="s">
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="51">
+        <v>11</v>
+      </c>
+      <c r="D15" s="50">
+        <v>67464</v>
+      </c>
+      <c r="E15" s="50">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F15" s="50">
+        <v>25787040</v>
+      </c>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="50">
-        <v>76027</v>
-      </c>
-      <c r="E14" s="50">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F14" s="50">
-        <v>332915479</v>
-      </c>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50">
-        <v>52485</v>
-      </c>
-      <c r="E15" s="50">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F15" s="50">
-        <v>11506800</v>
-      </c>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="51">
+        <v>12</v>
+      </c>
       <c r="D16" s="50">
-        <v>79816</v>
+        <v>57978</v>
       </c>
       <c r="E16" s="50">
-        <v>3.5000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F16" s="50">
-        <v>445151</v>
+        <v>10164971</v>
       </c>
       <c r="G16" s="49"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>151</v>
+      </c>
+      <c r="C17" s="51">
+        <v>13</v>
+      </c>
       <c r="D17" s="50">
-        <v>96390</v>
+        <v>57836</v>
       </c>
       <c r="E17" s="50">
-        <v>3.6999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F17" s="50">
-        <v>8715851</v>
+        <v>17176588</v>
       </c>
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="51"/>
+        <v>150</v>
+      </c>
+      <c r="C18" s="51">
+        <v>14</v>
+      </c>
       <c r="D18" s="50">
-        <v>49901</v>
+        <v>56740</v>
       </c>
       <c r="E18" s="50">
-        <v>2.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F18" s="50">
-        <v>34390</v>
+        <v>38066892</v>
       </c>
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="51"/>
+        <v>149</v>
+      </c>
+      <c r="C19" s="51">
+        <v>15</v>
+      </c>
       <c r="D19" s="50">
-        <v>79576</v>
+        <v>54688</v>
       </c>
       <c r="E19" s="50">
-        <v>2.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F19" s="50">
-        <v>5903031</v>
+        <v>9343823</v>
       </c>
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="51"/>
+        <v>148</v>
+      </c>
+      <c r="C20" s="51">
+        <v>16</v>
+      </c>
       <c r="D20" s="50">
-        <v>57978</v>
+        <v>53745</v>
       </c>
       <c r="E20" s="50">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F20" s="50">
-        <v>10164971</v>
+        <v>5543016</v>
       </c>
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="C21" s="51">
+        <v>17</v>
+      </c>
       <c r="D21" s="50">
-        <v>50349</v>
+        <v>53371</v>
       </c>
       <c r="E21" s="50">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F21" s="50">
-        <v>9915439</v>
+        <v>9048491</v>
       </c>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="C22" s="51">
+        <v>18</v>
+      </c>
       <c r="D22" s="50">
-        <v>74417</v>
+        <v>52485</v>
       </c>
       <c r="E22" s="50">
-        <v>3.2000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F22" s="50">
-        <v>345315</v>
+        <v>11506800</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="51"/>
+        <v>145</v>
+      </c>
+      <c r="C23" s="51">
+        <v>19</v>
+      </c>
       <c r="D23" s="50">
-        <v>101509</v>
+        <v>51104</v>
       </c>
       <c r="E23" s="50">
-        <v>3.2000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F23" s="50">
-        <v>4988494</v>
+        <v>83904967</v>
       </c>
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="51"/>
+        <v>144</v>
+      </c>
+      <c r="C24" s="51">
+        <v>20</v>
+      </c>
       <c r="D24" s="50">
-        <v>41930</v>
+        <v>50578</v>
       </c>
       <c r="E24" s="50">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F24" s="50">
-        <v>96846</v>
+        <v>664516</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="51"/>
+        <v>143</v>
+      </c>
+      <c r="C25" s="51">
+        <v>21</v>
+      </c>
       <c r="D25" s="50">
-        <v>49761</v>
+        <v>50349</v>
       </c>
       <c r="E25" s="50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F25" s="50">
-        <v>68205667</v>
+        <v>9915439</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="51"/>
+        <v>142</v>
+      </c>
+      <c r="C26" s="51">
+        <v>22</v>
+      </c>
       <c r="D26" s="50">
-        <v>53371</v>
+        <v>49901</v>
       </c>
       <c r="E26" s="50">
-        <v>1.4E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F26" s="50">
-        <v>9048491</v>
+        <v>34390</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="51"/>
+        <v>210</v>
+      </c>
+      <c r="C27" s="51">
+        <v>23</v>
+      </c>
       <c r="D27" s="50">
-        <v>54688</v>
+        <v>49850</v>
       </c>
       <c r="E27" s="50">
-        <v>1.7000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F27" s="50">
-        <v>9343823</v>
+        <v>7573949</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="C28" s="51">
+        <v>24</v>
+      </c>
       <c r="D28" s="50">
-        <v>34777</v>
+        <v>49847</v>
       </c>
       <c r="E28" s="50">
-        <v>4.3999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F28" s="50">
-        <v>60365847</v>
+        <v>4863312</v>
       </c>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="51"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="51">
+        <v>25</v>
+      </c>
       <c r="D29" s="50">
-        <v>39243</v>
+        <v>49761</v>
       </c>
       <c r="E29" s="50">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F29" s="50">
-        <v>125368712</v>
+        <v>68205667</v>
       </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="51"/>
+        <v>139</v>
+      </c>
+      <c r="C30" s="51">
+        <v>26</v>
+      </c>
       <c r="D30" s="50">
-        <v>84514</v>
+        <v>44747</v>
       </c>
       <c r="E30" s="50">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F30" s="50">
-        <v>2935322</v>
+        <v>65423342</v>
       </c>
       <c r="G30" s="49"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="51"/>
+        <v>138</v>
+      </c>
+      <c r="C31" s="51">
+        <v>27</v>
+      </c>
       <c r="D31" s="50">
-        <v>56740</v>
+        <v>41930</v>
       </c>
       <c r="E31" s="50">
-        <v>1.6E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F31" s="50">
-        <v>38066892</v>
+        <v>96846</v>
       </c>
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="51"/>
+        <v>137</v>
+      </c>
+      <c r="C32" s="51">
+        <v>28</v>
+      </c>
       <c r="D32" s="50">
-        <v>38755</v>
+        <v>39243</v>
       </c>
       <c r="E32" s="50">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" s="50">
-        <v>4883854</v>
+        <v>125368712</v>
       </c>
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="51"/>
+        <v>136</v>
+      </c>
+      <c r="C33" s="51">
+        <v>29</v>
+      </c>
       <c r="D33" s="50">
-        <v>37823</v>
+        <v>38755</v>
       </c>
       <c r="E33" s="50">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F33" s="50">
-        <v>2828932</v>
+        <v>4883854</v>
       </c>
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="C34" s="51">
+        <v>30</v>
+      </c>
       <c r="D34" s="50">
-        <v>44747</v>
+        <v>37823</v>
       </c>
       <c r="E34" s="50">
-        <v>3.5000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F34" s="50">
-        <v>65423342</v>
+        <v>2828932</v>
       </c>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="51"/>
+        <v>134</v>
+      </c>
+      <c r="C35" s="51">
+        <v>31</v>
+      </c>
       <c r="D35" s="50">
-        <v>53745</v>
+        <v>36051</v>
       </c>
       <c r="E35" s="50">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F35" s="50">
-        <v>5543016</v>
+        <v>23456716</v>
       </c>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="51"/>
+        <v>189</v>
+      </c>
+      <c r="C36" s="51">
+        <v>32</v>
+      </c>
       <c r="D36" s="50">
-        <v>67464</v>
+        <v>34994</v>
       </c>
       <c r="E36" s="50">
-        <v>4.1000000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F36" s="50">
-        <v>25787040</v>
+        <v>51663788</v>
       </c>
       <c r="G36" s="49"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="51"/>
+        <v>133</v>
+      </c>
+      <c r="C37" s="51">
+        <v>33</v>
+      </c>
       <c r="D37" s="50">
-        <v>49850</v>
+        <v>34777</v>
       </c>
       <c r="E37" s="50">
-        <v>2.7E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F37" s="50">
-        <v>7573949</v>
+        <v>60365847</v>
       </c>
       <c r="G37" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F37">
-    <sortCondition ref="B4:B37"/>
+    <sortCondition descending="1" ref="D4:D37"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="H2:L2"/>
@@ -12057,6 +17106,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12158,24 +17208,24 @@
     <row r="1" spans="2:13" ht="12" customHeight="1"/>
     <row r="2" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="68">
         <v>5</v>
@@ -12188,7 +17238,7 @@
     </row>
     <row r="4" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="68">
         <v>6</v>
@@ -12201,7 +17251,7 @@
     </row>
     <row r="5" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B5" s="69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="68">
         <v>10</v>
@@ -12214,7 +17264,7 @@
     </row>
     <row r="6" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B6" s="69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="68">
         <v>6</v>
@@ -12227,7 +17277,7 @@
     </row>
     <row r="7" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B7" s="69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="68">
         <v>7</v>
@@ -12240,7 +17290,7 @@
     </row>
     <row r="8" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B8" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="68">
         <v>9</v>
@@ -12253,7 +17303,7 @@
     </row>
     <row r="9" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B9" s="69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="68">
         <v>10</v>
@@ -12266,7 +17316,7 @@
     </row>
     <row r="10" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B10" s="69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="68">
         <v>12</v>
@@ -12279,10 +17329,10 @@
     </row>
     <row r="11" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B11" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
+        <v>174</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="68"/>
       <c r="F11" s="67"/>
     </row>
@@ -12318,13 +17368,13 @@
   <sheetData>
     <row r="1" spans="2:13" ht="12" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B2" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
     </row>
     <row r="3" spans="2:13" ht="6" customHeight="1">
       <c r="B3" s="86"/>
@@ -12332,7 +17382,7 @@
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1">
       <c r="B4" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="84">
         <v>0.03</v>

--- a/file/엑셀 기초 총정리 특강 1-1.xlsx
+++ b/file/엑셀 기초 총정리 특강 1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Excel_Study\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5657269-AA76-4222-A799-741AE2641044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E2537-11E6-46F5-99B2-7A46AB15F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{4D0D7E83-E110-4E81-9716-E789F9EFFFBB}"/>
   </bookViews>
@@ -4140,15 +4140,6 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -5000,6 +4991,1383 @@
     <author>User</author>
   </authors>
   <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0E246DB4-8794-4130-AF18-020C6D966B55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복붙한 범위의 열 너비를 맟추기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Ctrl+a)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">복사
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붙이고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곳이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">붙이기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붙인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아닌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따로따로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1. Ctrl + 2. w </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력
+절대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엑셀이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> !!!)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{1760A232-6285-457A-8D0F-0C5E90C07911}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병합은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되도록</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">안하기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병합</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나중에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>걸로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문제가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생긴다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러기에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>머리글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병합과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>얻들수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우클릭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+3. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞춤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>탭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+4. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> -&gt;  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가운데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>. 확인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">==========================
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R4" authorId="0" shapeId="0" xr:uid="{1A56A7D7-8478-434C-ABBC-C7D11815E477}">
       <text>
         <r>
@@ -5024,60 +6392,23 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>빠른실행</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도구</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">빠른실행 도구 모음 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -6237,60 +7568,23 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>순위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>같은것</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>만들기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">순위 같은것 만들기 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -6473,6 +7767,1099 @@
             <charset val="129"/>
           </rPr>
           <t>됨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{1E9EF65A-6A22-42B9-9235-B88BF91C8EB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀을 쉽게 옮기는 방법을 하기에 입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮기고자하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">드래그
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. Shift </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+3. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커서를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테두리에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">올리기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮기고자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는곳으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가져다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놓기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{AAB7A0FB-BDC5-435F-A2ED-3AE46F0E7241}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태 표시줄 확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다수의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드래그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오른쪽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하단에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러가지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나오는것을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평균</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,2) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합계</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나온다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만약에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최솟값이나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대값도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>싶으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시줄을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우클릭하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.  </t>
         </r>
       </text>
     </comment>
@@ -6481,7 +8868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="211">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7230,7 +9617,7 @@
     <numFmt numFmtId="177" formatCode="General\ &quot;페이지&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0;;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7473,6 +9860,36 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7974,7 +10391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8239,13 +10656,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8253,9 +10670,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10251,7 +12665,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1187343</xdr:colOff>
+      <xdr:colOff>1187342</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1462</xdr:rowOff>
     </xdr:to>
@@ -12358,10 +14772,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
@@ -12664,8 +15074,8 @@
   </sheetPr>
   <dimension ref="B1:AL142"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999" customHeight="1" outlineLevelCol="1"/>
@@ -12723,23 +15133,23 @@
       <c r="AL2" s="30"/>
     </row>
     <row r="3" spans="2:38" ht="24.6" customHeight="1" thickTop="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="12"/>
       <c r="R3" s="36" t="s">
         <v>102</v>
@@ -12747,12 +15157,12 @@
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
       <c r="Y3" s="31"/>
-      <c r="Z3" s="88" t="s">
+      <c r="Z3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
       <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
       <c r="AF3" s="27"/>
@@ -16083,7 +18493,7 @@
   <dimension ref="G2:L9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16282,7 +18692,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16297,13 +18707,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.45" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="30.6" customHeight="1">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="3" spans="2:7" ht="10.15" customHeight="1"/>
     <row r="4" spans="2:7">
@@ -16333,7 +18743,7 @@
       <c r="D5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="88" t="s">
         <v>205</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -16423,7 +18833,7 @@
   <dimension ref="B1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="16.5"/>
@@ -16433,10 +18843,13 @@
     <col min="3" max="3" width="7.375" style="48" customWidth="1"/>
     <col min="4" max="6" width="14.75" style="48" customWidth="1"/>
     <col min="7" max="7" width="4.625" style="48" customWidth="1"/>
-    <col min="8" max="12" width="7.75" style="48" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="48" customWidth="1"/>
+    <col min="10" max="12" width="14.75" style="48" customWidth="1"/>
     <col min="13" max="13" width="8.25" style="48"/>
     <col min="14" max="15" width="17" style="48" customWidth="1"/>
-    <col min="16" max="16384" width="8.25" style="48"/>
+    <col min="16" max="19" width="8.25" style="48" customWidth="1"/>
+    <col min="20" max="16384" width="8.25" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="10.15" customHeight="1" thickBot="1">
@@ -16458,13 +18871,13 @@
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
       <c r="G2" s="49"/>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="2:18" ht="6.6" customHeight="1">
       <c r="B3" s="49"/>
@@ -16473,8 +18886,8 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -16496,10 +18909,28 @@
         <v>158</v>
       </c>
       <c r="G4" s="49"/>
+      <c r="H4" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>158</v>
+      </c>
       <c r="N4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="52"/>
+      <c r="O4" s="52">
+        <f>AVERAGE(J:J)</f>
+        <v>60875.333333333336</v>
+      </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="51" t="s">
@@ -16518,6 +18949,21 @@
         <v>637482</v>
       </c>
       <c r="G5" s="49"/>
+      <c r="H5" s="51">
+        <v>1</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="50">
+        <v>135045</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L5" s="50">
+        <v>637482</v>
+      </c>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="51" t="s">
@@ -16536,6 +18982,21 @@
         <v>4988494</v>
       </c>
       <c r="G6" s="49"/>
+      <c r="H6" s="51">
+        <v>2</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="50">
+        <v>101509</v>
+      </c>
+      <c r="K6" s="50">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L6" s="50">
+        <v>4988494</v>
+      </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="51" t="s">
@@ -16554,6 +19015,21 @@
         <v>5464037</v>
       </c>
       <c r="G7" s="49"/>
+      <c r="H7" s="51">
+        <v>3</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="50">
+        <v>99481</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="50">
+        <v>5464037</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="51" t="s">
@@ -16572,42 +19048,87 @@
         <v>8715851</v>
       </c>
       <c r="G8" s="49"/>
+      <c r="H8" s="51">
+        <v>4</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="50">
+        <v>96390</v>
+      </c>
+      <c r="K8" s="50">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L8" s="50">
+        <v>8715851</v>
+      </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="50">
-        <v>84514</v>
+        <v>79816</v>
       </c>
       <c r="E9" s="50">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9" s="50">
-        <v>2935322</v>
+        <v>445151</v>
       </c>
       <c r="G9" s="49"/>
+      <c r="H9" s="51">
+        <v>6</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="50">
+        <v>79816</v>
+      </c>
+      <c r="K9" s="50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L9" s="50">
+        <v>445151</v>
+      </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="50">
-        <v>79816</v>
+        <v>84514</v>
       </c>
       <c r="E10" s="50">
-        <v>3.5000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F10" s="50">
-        <v>445151</v>
+        <v>2935322</v>
       </c>
       <c r="G10" s="49"/>
+      <c r="H10" s="51">
+        <v>5</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="50">
+        <v>84514</v>
+      </c>
+      <c r="K10" s="50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L10" s="50">
+        <v>2935322</v>
+      </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="51" t="s">
@@ -16626,6 +19147,21 @@
         <v>5903031</v>
       </c>
       <c r="G11" s="49"/>
+      <c r="H11" s="51">
+        <v>7</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="50">
+        <v>79576</v>
+      </c>
+      <c r="K11" s="50">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L11" s="50">
+        <v>5903031</v>
+      </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="51" t="s">
@@ -16644,6 +19180,21 @@
         <v>332915479</v>
       </c>
       <c r="G12" s="49"/>
+      <c r="H12" s="51">
+        <v>8</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="50">
+        <v>76027</v>
+      </c>
+      <c r="K12" s="50">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L12" s="50">
+        <v>332915479</v>
+      </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="51" t="s">
@@ -16662,6 +19213,21 @@
         <v>345315</v>
       </c>
       <c r="G13" s="49"/>
+      <c r="H13" s="51">
+        <v>9</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="50">
+        <v>74417</v>
+      </c>
+      <c r="K13" s="50">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L13" s="50">
+        <v>345315</v>
+      </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="51" t="s">
@@ -16680,6 +19246,21 @@
         <v>5817245</v>
       </c>
       <c r="G14" s="49"/>
+      <c r="H14" s="51">
+        <v>10</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="50">
+        <v>68094</v>
+      </c>
+      <c r="K14" s="50">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L14" s="50">
+        <v>5817245</v>
+      </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="51" t="s">
@@ -16698,6 +19279,21 @@
         <v>25787040</v>
       </c>
       <c r="G15" s="49"/>
+      <c r="H15" s="51">
+        <v>11</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="50">
+        <v>67464</v>
+      </c>
+      <c r="K15" s="50">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L15" s="50">
+        <v>25787040</v>
+      </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="51" t="s">
@@ -16716,8 +19312,23 @@
         <v>10164971</v>
       </c>
       <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="51">
+        <v>12</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="50">
+        <v>57978</v>
+      </c>
+      <c r="K16" s="50">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L16" s="50">
+        <v>10164971</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="51" t="s">
         <v>151</v>
       </c>
@@ -16734,8 +19345,23 @@
         <v>17176588</v>
       </c>
       <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="51">
+        <v>13</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="50">
+        <v>57836</v>
+      </c>
+      <c r="K17" s="50">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L17" s="50">
+        <v>17176588</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="51" t="s">
         <v>150</v>
       </c>
@@ -16752,8 +19378,23 @@
         <v>38066892</v>
       </c>
       <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="51">
+        <v>14</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="50">
+        <v>56740</v>
+      </c>
+      <c r="K18" s="50">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L18" s="50">
+        <v>38066892</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="51" t="s">
         <v>149</v>
       </c>
@@ -16770,8 +19411,23 @@
         <v>9343823</v>
       </c>
       <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="51">
+        <v>15</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="50">
+        <v>54688</v>
+      </c>
+      <c r="K19" s="50">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L19" s="50">
+        <v>9343823</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="51" t="s">
         <v>148</v>
       </c>
@@ -16788,8 +19444,23 @@
         <v>5543016</v>
       </c>
       <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="51">
+        <v>16</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="50">
+        <v>53745</v>
+      </c>
+      <c r="K20" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L20" s="50">
+        <v>5543016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="51" t="s">
         <v>147</v>
       </c>
@@ -16806,8 +19477,23 @@
         <v>9048491</v>
       </c>
       <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="51">
+        <v>17</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="50">
+        <v>53371</v>
+      </c>
+      <c r="K21" s="50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L21" s="50">
+        <v>9048491</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="51" t="s">
         <v>146</v>
       </c>
@@ -16824,8 +19510,23 @@
         <v>11506800</v>
       </c>
       <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="51">
+        <v>18</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="50">
+        <v>52485</v>
+      </c>
+      <c r="K22" s="50">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L22" s="50">
+        <v>11506800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="51" t="s">
         <v>145</v>
       </c>
@@ -16842,8 +19543,23 @@
         <v>83904967</v>
       </c>
       <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="51">
+        <v>19</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="50">
+        <v>51104</v>
+      </c>
+      <c r="K23" s="50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L23" s="50">
+        <v>83904967</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="51" t="s">
         <v>144</v>
       </c>
@@ -16860,8 +19576,23 @@
         <v>664516</v>
       </c>
       <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" s="51">
+        <v>20</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="50">
+        <v>50578</v>
+      </c>
+      <c r="K24" s="50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L24" s="50">
+        <v>664516</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="51" t="s">
         <v>143</v>
       </c>
@@ -16878,8 +19609,23 @@
         <v>9915439</v>
       </c>
       <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="51">
+        <v>21</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="50">
+        <v>50349</v>
+      </c>
+      <c r="K25" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="L25" s="50">
+        <v>9915439</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="51" t="s">
         <v>142</v>
       </c>
@@ -16896,8 +19642,23 @@
         <v>34390</v>
       </c>
       <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="51">
+        <v>22</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="50">
+        <v>49901</v>
+      </c>
+      <c r="K26" s="50">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L26" s="50">
+        <v>34390</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="51" t="s">
         <v>210</v>
       </c>
@@ -16914,8 +19675,23 @@
         <v>7573949</v>
       </c>
       <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="51">
+        <v>23</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="50">
+        <v>49850</v>
+      </c>
+      <c r="K27" s="50">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L27" s="50">
+        <v>7573949</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="51" t="s">
         <v>141</v>
       </c>
@@ -16932,8 +19708,23 @@
         <v>4863312</v>
       </c>
       <c r="G28" s="49"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="51">
+        <v>24</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="50">
+        <v>49847</v>
+      </c>
+      <c r="K28" s="50">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L28" s="50">
+        <v>4863312</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="51" t="s">
         <v>140</v>
       </c>
@@ -16950,8 +19741,23 @@
         <v>68205667</v>
       </c>
       <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="51">
+        <v>25</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="50">
+        <v>49761</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="L29" s="50">
+        <v>68205667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="51" t="s">
         <v>139</v>
       </c>
@@ -16968,8 +19774,23 @@
         <v>65423342</v>
       </c>
       <c r="G30" s="49"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="51">
+        <v>26</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="50">
+        <v>44747</v>
+      </c>
+      <c r="K30" s="50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L30" s="50">
+        <v>65423342</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="51" t="s">
         <v>138</v>
       </c>
@@ -16986,8 +19807,23 @@
         <v>96846</v>
       </c>
       <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="51">
+        <v>27</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="50">
+        <v>41930</v>
+      </c>
+      <c r="K31" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L31" s="50">
+        <v>96846</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="51" t="s">
         <v>137</v>
       </c>
@@ -17004,8 +19840,23 @@
         <v>125368712</v>
       </c>
       <c r="G32" s="49"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="51">
+        <v>28</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="50">
+        <v>39243</v>
+      </c>
+      <c r="K32" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L32" s="50">
+        <v>125368712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="51" t="s">
         <v>136</v>
       </c>
@@ -17022,8 +19873,23 @@
         <v>4883854</v>
       </c>
       <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="51">
+        <v>29</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="50">
+        <v>38755</v>
+      </c>
+      <c r="K33" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="L33" s="50">
+        <v>4883854</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" s="51" t="s">
         <v>135</v>
       </c>
@@ -17040,8 +19906,23 @@
         <v>2828932</v>
       </c>
       <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="51">
+        <v>30</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="50">
+        <v>37823</v>
+      </c>
+      <c r="K34" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="L34" s="50">
+        <v>2828932</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35" s="51" t="s">
         <v>134</v>
       </c>
@@ -17058,8 +19939,23 @@
         <v>23456716</v>
       </c>
       <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="51">
+        <v>31</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="50">
+        <v>36051</v>
+      </c>
+      <c r="K35" s="50">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L35" s="50">
+        <v>23456716</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" s="51" t="s">
         <v>189</v>
       </c>
@@ -17076,8 +19972,23 @@
         <v>51663788</v>
       </c>
       <c r="G36" s="49"/>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="51">
+        <v>32</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="50">
+        <v>34994</v>
+      </c>
+      <c r="K36" s="50">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L36" s="50">
+        <v>51663788</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" s="51" t="s">
         <v>133</v>
       </c>
@@ -17094,14 +20005,26 @@
         <v>60365847</v>
       </c>
       <c r="G37" s="49"/>
+      <c r="H37" s="51">
+        <v>33</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="50">
+        <v>34777</v>
+      </c>
+      <c r="K37" s="50">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L37" s="50">
+        <v>60365847</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F37">
     <sortCondition descending="1" ref="D4:D37"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="H2:L2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17355,7 +20278,9 @@
   </sheetPr>
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
   <cols>
